--- a/calendars.xlsx
+++ b/calendars.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolas\Drive\UDESA\Taller de Tesis\Papers sugeridos\para revisar\Automatic Splines\codigo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolas\Drive\UDESA\Taller de Tesis\Papers sugeridos\para revisar\Automatic Splines\NonParametricTermStructure\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
-    <sheet name="13-Ago" sheetId="1" r:id="rId1"/>
+    <sheet name="Prices" sheetId="1" r:id="rId1"/>
     <sheet name="AO20" sheetId="2" r:id="rId2"/>
     <sheet name="AA21" sheetId="3" r:id="rId3"/>
     <sheet name="A2E2" sheetId="5" r:id="rId4"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="207">
   <si>
     <t>AO20</t>
   </si>
@@ -70,9 +70,6 @@
     <t>AA46</t>
   </si>
   <si>
-    <t>Precio</t>
-  </si>
-  <si>
     <t>Maturity</t>
   </si>
   <si>
@@ -653,6 +650,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Bond</t>
   </si>
 </sst>
 </file>
@@ -738,6 +741,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1015,7 +1086,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1026,20 +1097,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>206</v>
+      </c>
       <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -1047,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2932</v>
+        <v>100.34223134839152</v>
       </c>
       <c r="C2" s="3">
         <v>0.08</v>
@@ -1067,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2805</v>
+        <v>95.995893223819309</v>
       </c>
       <c r="C3" s="3">
         <v>6.8750000000000006E-2</v>
@@ -1087,7 +1161,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2900</v>
+        <v>99.24709103353868</v>
       </c>
       <c r="C4" s="3">
         <v>8.7499999999999994E-2</v>
@@ -1107,7 +1181,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2619</v>
+        <v>89.630390143737174</v>
       </c>
       <c r="C5" s="3">
         <v>5.6250000000000001E-2</v>
@@ -1127,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2480</v>
+        <v>84.873374401095148</v>
       </c>
       <c r="C6" s="3">
         <v>5.7500000000000002E-2</v>
@@ -1147,7 +1221,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2650</v>
+        <v>90.691307323750863</v>
       </c>
       <c r="C7" s="3">
         <v>7.4999999999999997E-2</v>
@@ -1167,7 +1241,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2410</v>
+        <v>82.477754962354553</v>
       </c>
       <c r="C8" s="3">
         <v>6.8750000000000006E-2</v>
@@ -1187,7 +1261,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3436</v>
+        <v>117.59069130732375</v>
       </c>
       <c r="C9" s="3">
         <v>8.2799999999999999E-2</v>
@@ -1202,7 +1276,7 @@
         <v>48944</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1210,7 +1284,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2300</v>
+        <v>78.713210130047912</v>
       </c>
       <c r="C10" s="3">
         <v>7.6249999999999998E-2</v>
@@ -1230,7 +1304,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1560</v>
+        <v>53.388090349075981</v>
       </c>
       <c r="C11" s="3">
         <v>2.5000000000000001E-2</v>
@@ -1245,7 +1319,7 @@
         <v>50770</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -1253,7 +1327,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2310</v>
+        <v>79.055441478439434</v>
       </c>
       <c r="C12" s="3">
         <v>7.6249999999999998E-2</v>
@@ -1292,21 +1366,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
         <v>202</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>204</v>
-      </c>
-      <c r="C1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5">
         <v>3.81</v>
@@ -1318,7 +1392,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="7">
         <v>3.81</v>
@@ -1330,7 +1404,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="5">
         <v>3.81</v>
@@ -1342,7 +1416,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="7">
         <v>3.81</v>
@@ -1354,7 +1428,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="5">
         <v>3.81</v>
@@ -1366,7 +1440,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="7">
         <v>3.81</v>
@@ -1378,7 +1452,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5">
         <v>3.81</v>
@@ -1390,7 +1464,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="7">
         <v>3.81</v>
@@ -1402,7 +1476,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5">
         <v>3.81</v>
@@ -1414,7 +1488,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="7">
         <v>3.81</v>
@@ -1426,7 +1500,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="5">
         <v>3.81</v>
@@ -1438,7 +1512,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="7">
         <v>3.81</v>
@@ -1450,7 +1524,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="5">
         <v>3.81</v>
@@ -1462,7 +1536,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="7">
         <v>3.81</v>
@@ -1474,7 +1548,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5">
         <v>3.81</v>
@@ -1486,7 +1560,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="7">
         <v>3.81</v>
@@ -1498,7 +1572,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="5">
         <v>3.81</v>
@@ -1510,7 +1584,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="7">
         <v>3.81</v>
@@ -1522,7 +1596,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" s="5">
         <v>3.81</v>
@@ -1534,7 +1608,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21" s="7">
         <v>3.81</v>
@@ -1546,7 +1620,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="5">
         <v>3.81</v>
@@ -1558,7 +1632,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23" s="7">
         <v>3.81</v>
@@ -1570,7 +1644,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" s="5">
         <v>3.81</v>
@@ -1582,7 +1656,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B25" s="7">
         <v>3.81</v>
@@ -1594,7 +1668,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B26" s="5">
         <v>3.81</v>
@@ -1606,7 +1680,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B27" s="7">
         <v>3.81</v>
@@ -1618,7 +1692,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B28" s="5">
         <v>3.81</v>
@@ -1630,7 +1704,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B29" s="7">
         <v>3.81</v>
@@ -1642,7 +1716,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B30" s="5">
         <v>3.81</v>
@@ -1654,7 +1728,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B31" s="7">
         <v>3.81</v>
@@ -1666,7 +1740,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B32" s="5">
         <v>3.81</v>
@@ -1678,7 +1752,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B33" s="7">
         <v>3.81</v>
@@ -1690,7 +1764,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B34" s="5">
         <v>3.81</v>
@@ -1702,7 +1776,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B35" s="7">
         <v>3.81</v>
@@ -1716,7 +1790,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B36" s="5">
         <v>2.5499999999999998</v>
@@ -1728,7 +1802,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B37" s="7">
         <v>2.5499999999999998</v>
@@ -1742,7 +1816,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B38" s="5">
         <v>1.29</v>
@@ -1754,7 +1828,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B39" s="7">
         <v>1.29</v>
@@ -1789,21 +1863,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
         <v>202</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>204</v>
-      </c>
-      <c r="C1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="5">
         <v>1.25</v>
@@ -1815,7 +1889,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="7">
         <v>1.88</v>
@@ -1827,7 +1901,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="5">
         <v>1.88</v>
@@ -1839,7 +1913,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="7">
         <v>1.88</v>
@@ -1851,7 +1925,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="5">
         <v>1.88</v>
@@ -1863,7 +1937,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="7">
         <v>1.88</v>
@@ -1875,7 +1949,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="5">
         <v>1.88</v>
@@ -1887,7 +1961,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="7">
         <v>1.88</v>
@@ -1899,7 +1973,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="5">
         <v>1.88</v>
@@ -1911,7 +1985,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" s="7">
         <v>1.88</v>
@@ -1923,7 +1997,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12" s="5">
         <v>1.88</v>
@@ -1935,7 +2009,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B13" s="7">
         <v>1.88</v>
@@ -1947,7 +2021,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="5">
         <v>1.88</v>
@@ -1959,7 +2033,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" s="7">
         <v>1.88</v>
@@ -1971,7 +2045,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16" s="5">
         <v>1.88</v>
@@ -1983,7 +2057,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B17" s="7">
         <v>1.88</v>
@@ -1995,7 +2069,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B18" s="5">
         <v>1.88</v>
@@ -2007,7 +2081,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B19" s="7">
         <v>1.88</v>
@@ -2019,7 +2093,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B20" s="5">
         <v>1.88</v>
@@ -2031,7 +2105,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B21" s="7">
         <v>1.88</v>
@@ -2043,7 +2117,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B22" s="5">
         <v>1.88</v>
@@ -2055,7 +2129,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B23" s="7">
         <v>2.63</v>
@@ -2067,7 +2141,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B24" s="5">
         <v>2.63</v>
@@ -2081,7 +2155,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B25" s="7">
         <v>2.4900000000000002</v>
@@ -2095,7 +2169,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B26" s="5">
         <v>2.36</v>
@@ -2109,7 +2183,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B27" s="7">
         <v>2.23</v>
@@ -2123,7 +2197,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B28" s="5">
         <v>2.1</v>
@@ -2137,7 +2211,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B29" s="7">
         <v>1.97</v>
@@ -2151,7 +2225,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B30" s="5">
         <v>1.84</v>
@@ -2165,7 +2239,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B31" s="7">
         <v>1.71</v>
@@ -2179,7 +2253,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B32" s="5">
         <v>1.58</v>
@@ -2193,7 +2267,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B33" s="7">
         <v>1.44</v>
@@ -2207,7 +2281,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B34" s="5">
         <v>1.31</v>
@@ -2221,7 +2295,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B35" s="7">
         <v>1.18</v>
@@ -2235,7 +2309,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36" s="5">
         <v>1.05</v>
@@ -2249,7 +2323,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B37" s="7">
         <v>0.92</v>
@@ -2263,7 +2337,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B38" s="5">
         <v>0.79</v>
@@ -2277,7 +2351,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B39" s="7">
         <v>0.66</v>
@@ -2291,7 +2365,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B40" s="5">
         <v>0.53</v>
@@ -2305,7 +2379,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B41" s="7">
         <v>0.39</v>
@@ -2319,7 +2393,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B42" s="5">
         <v>0.26</v>
@@ -2333,7 +2407,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B43" s="7">
         <v>7.0000000000000007E-2</v>
@@ -2368,21 +2442,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
         <v>202</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>204</v>
-      </c>
-      <c r="C1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5">
         <v>3.81</v>
@@ -2394,7 +2468,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="7">
         <v>3.81</v>
@@ -2406,7 +2480,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5">
         <v>3.81</v>
@@ -2418,7 +2492,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="7">
         <v>3.81</v>
@@ -2430,7 +2504,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5">
         <v>3.81</v>
@@ -2442,7 +2516,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="7">
         <v>3.81</v>
@@ -2454,7 +2528,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="5">
         <v>3.81</v>
@@ -2466,7 +2540,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="7">
         <v>3.81</v>
@@ -2478,7 +2552,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5">
         <v>3.81</v>
@@ -2490,7 +2564,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="7">
         <v>3.81</v>
@@ -2502,7 +2576,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="5">
         <v>3.81</v>
@@ -2514,7 +2588,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="7">
         <v>3.81</v>
@@ -2526,7 +2600,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="5">
         <v>3.81</v>
@@ -2538,7 +2612,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="7">
         <v>3.81</v>
@@ -2550,7 +2624,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="5">
         <v>3.81</v>
@@ -2562,7 +2636,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="7">
         <v>3.81</v>
@@ -2574,7 +2648,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" s="5">
         <v>3.81</v>
@@ -2586,7 +2660,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="7">
         <v>3.81</v>
@@ -2598,7 +2672,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" s="5">
         <v>3.81</v>
@@ -2610,7 +2684,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B21" s="7">
         <v>3.81</v>
@@ -2622,7 +2696,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B22" s="5">
         <v>3.81</v>
@@ -2634,7 +2708,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="7">
         <v>3.81</v>
@@ -2646,7 +2720,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B24" s="5">
         <v>3.81</v>
@@ -2658,7 +2732,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B25" s="7">
         <v>3.81</v>
@@ -2670,7 +2744,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B26" s="5">
         <v>3.81</v>
@@ -2682,7 +2756,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B27" s="7">
         <v>3.81</v>
@@ -2694,7 +2768,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28" s="5">
         <v>3.81</v>
@@ -2706,7 +2780,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B29" s="7">
         <v>3.81</v>
@@ -2718,7 +2792,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B30" s="5">
         <v>3.81</v>
@@ -2730,7 +2804,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B31" s="7">
         <v>3.81</v>
@@ -2742,7 +2816,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B32" s="5">
         <v>3.81</v>
@@ -2754,7 +2828,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B33" s="7">
         <v>3.81</v>
@@ -2766,7 +2840,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B34" s="5">
         <v>3.81</v>
@@ -2778,7 +2852,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B35" s="7">
         <v>3.81</v>
@@ -2790,7 +2864,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B36" s="5">
         <v>3.81</v>
@@ -2802,7 +2876,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B37" s="7">
         <v>3.81</v>
@@ -2814,7 +2888,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B38" s="5">
         <v>3.81</v>
@@ -2826,7 +2900,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B39" s="7">
         <v>3.81</v>
@@ -2838,7 +2912,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B40" s="5">
         <v>3.81</v>
@@ -2850,7 +2924,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B41" s="7">
         <v>3.81</v>
@@ -2862,7 +2936,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B42" s="5">
         <v>3.81</v>
@@ -2874,7 +2948,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B43" s="7">
         <v>3.81</v>
@@ -2886,7 +2960,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B44" s="5">
         <v>3.81</v>
@@ -2898,7 +2972,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B45" s="7">
         <v>3.81</v>
@@ -2910,7 +2984,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B46" s="5">
         <v>3.81</v>
@@ -2922,7 +2996,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B47" s="7">
         <v>3.81</v>
@@ -2934,7 +3008,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B48" s="5">
         <v>3.81</v>
@@ -2946,7 +3020,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B49" s="7">
         <v>3.81</v>
@@ -2958,7 +3032,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B50" s="5">
         <v>3.81</v>
@@ -2970,7 +3044,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B51" s="7">
         <v>3.81</v>
@@ -2982,7 +3056,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B52" s="5">
         <v>3.81</v>
@@ -2994,7 +3068,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B53" s="7">
         <v>3.81</v>
@@ -3006,7 +3080,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B54" s="5">
         <v>3.81</v>
@@ -3018,7 +3092,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B55" s="7">
         <v>3.81</v>
@@ -3030,7 +3104,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B56" s="5">
         <v>3.81</v>
@@ -3042,7 +3116,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B57" s="7">
         <v>3.81</v>
@@ -3075,16 +3149,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
         <v>202</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>204</v>
-      </c>
-      <c r="C1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -3170,21 +3244,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
         <v>202</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>204</v>
-      </c>
-      <c r="C1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5">
         <v>3.44</v>
@@ -3196,7 +3270,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="7">
         <v>3.44</v>
@@ -3208,7 +3282,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5">
         <v>3.44</v>
@@ -3220,7 +3294,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="7">
         <v>3.44</v>
@@ -3232,7 +3306,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5">
         <v>3.44</v>
@@ -3244,7 +3318,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="7">
         <v>3.44</v>
@@ -3277,21 +3351,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
         <v>202</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>204</v>
-      </c>
-      <c r="C1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5">
         <v>2.81</v>
@@ -3303,7 +3377,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="7">
         <v>2.81</v>
@@ -3315,7 +3389,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5">
         <v>2.81</v>
@@ -3327,7 +3401,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="7">
         <v>2.81</v>
@@ -3339,7 +3413,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="5">
         <v>2.81</v>
@@ -3351,7 +3425,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="7">
         <v>2.81</v>
@@ -3363,7 +3437,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="5">
         <v>2.81</v>
@@ -3395,16 +3469,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
         <v>202</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>204</v>
-      </c>
-      <c r="C1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -3583,21 +3657,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
         <v>202</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>204</v>
-      </c>
-      <c r="C1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5">
         <v>2.88</v>
@@ -3609,7 +3683,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="7">
         <v>2.88</v>
@@ -3621,7 +3695,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="5">
         <v>2.88</v>
@@ -3633,7 +3707,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="7">
         <v>2.88</v>
@@ -3645,7 +3719,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="5">
         <v>2.88</v>
@@ -3657,7 +3731,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="7">
         <v>2.88</v>
@@ -3669,7 +3743,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5">
         <v>2.88</v>
@@ -3681,7 +3755,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="7">
         <v>2.88</v>
@@ -3693,7 +3767,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5">
         <v>2.88</v>
@@ -3705,7 +3779,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="7">
         <v>2.88</v>
@@ -3719,7 +3793,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="5">
         <v>1.93</v>
@@ -3731,7 +3805,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="7">
         <v>1.93</v>
@@ -3745,7 +3819,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="5">
         <v>0.98</v>
@@ -3757,7 +3831,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="7">
         <v>0.98</v>
@@ -3790,21 +3864,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
         <v>202</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>204</v>
-      </c>
-      <c r="C1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5">
         <v>3.75</v>
@@ -3816,7 +3890,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="7">
         <v>3.75</v>
@@ -3828,7 +3902,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5">
         <v>3.75</v>
@@ -3840,7 +3914,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="7">
         <v>3.75</v>
@@ -3852,7 +3926,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5">
         <v>3.75</v>
@@ -3864,7 +3938,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="7">
         <v>3.75</v>
@@ -3876,7 +3950,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="5">
         <v>3.75</v>
@@ -3888,7 +3962,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="7">
         <v>3.75</v>
@@ -3900,7 +3974,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5">
         <v>3.75</v>
@@ -3912,7 +3986,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="7">
         <v>3.75</v>
@@ -3924,7 +3998,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="5">
         <v>3.75</v>
@@ -3936,7 +4010,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="7">
         <v>3.75</v>
@@ -3948,7 +4022,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="5">
         <v>3.75</v>
@@ -3960,7 +4034,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="7">
         <v>3.75</v>
@@ -3972,7 +4046,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="5">
         <v>3.75</v>
@@ -3984,7 +4058,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="7">
         <v>3.75</v>
@@ -4019,21 +4093,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
         <v>202</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>204</v>
-      </c>
-      <c r="C1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5">
         <v>3.44</v>
@@ -4045,7 +4119,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="7">
         <v>3.44</v>
@@ -4057,7 +4131,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5">
         <v>3.44</v>
@@ -4069,7 +4143,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="7">
         <v>3.44</v>
@@ -4081,7 +4155,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="5">
         <v>3.44</v>
@@ -4093,7 +4167,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="7">
         <v>3.44</v>
@@ -4105,7 +4179,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="5">
         <v>3.44</v>
@@ -4117,7 +4191,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="7">
         <v>3.44</v>
@@ -4129,7 +4203,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5">
         <v>3.44</v>
@@ -4141,7 +4215,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="7">
         <v>3.44</v>
@@ -4153,7 +4227,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="5">
         <v>3.44</v>
@@ -4165,7 +4239,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="7">
         <v>3.44</v>
@@ -4177,7 +4251,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="5">
         <v>3.44</v>
@@ -4189,7 +4263,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="7">
         <v>3.44</v>
@@ -4201,7 +4275,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5">
         <v>3.44</v>
@@ -4213,7 +4287,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="7">
         <v>3.44</v>
@@ -4225,7 +4299,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="5">
         <v>3.44</v>
@@ -4257,21 +4331,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
         <v>202</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>204</v>
-      </c>
-      <c r="C1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="5">
         <v>5.8</v>
@@ -4283,7 +4357,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="7">
         <v>5.8</v>
@@ -4295,7 +4369,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="5">
         <v>5.8</v>
@@ -4307,7 +4381,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="7">
         <v>5.8</v>
@@ -4319,7 +4393,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="5">
         <v>5.8</v>
@@ -4331,7 +4405,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="7">
         <v>5.8</v>
@@ -4343,7 +4417,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="5">
         <v>5.8</v>
@@ -4355,7 +4429,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="7">
         <v>5.8</v>
@@ -4367,7 +4441,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="5">
         <v>5.8</v>
@@ -4379,7 +4453,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="7">
         <v>5.8</v>
@@ -4391,7 +4465,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="5">
         <v>5.8</v>
@@ -4403,7 +4477,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="7">
         <v>5.8</v>
@@ -4417,7 +4491,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="5">
         <v>5.51</v>
@@ -4431,7 +4505,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7">
         <v>5.22</v>
@@ -4445,7 +4519,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5">
         <v>4.93</v>
@@ -4459,7 +4533,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="7">
         <v>4.6399999999999997</v>
@@ -4473,7 +4547,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="5">
         <v>4.3499999999999996</v>
@@ -4487,7 +4561,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="7">
         <v>4.0599999999999996</v>
@@ -4501,7 +4575,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="5">
         <v>3.77</v>
@@ -4515,7 +4589,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="7">
         <v>3.48</v>
@@ -4529,7 +4603,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="5">
         <v>3.19</v>
@@ -4543,7 +4617,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="7">
         <v>2.9</v>
@@ -4557,7 +4631,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" s="5">
         <v>2.61</v>
@@ -4571,7 +4645,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" s="7">
         <v>2.3199999999999998</v>
@@ -4585,7 +4659,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" s="5">
         <v>2.0299999999999998</v>
@@ -4599,7 +4673,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="7">
         <v>1.74</v>
@@ -4613,7 +4687,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="5">
         <v>1.45</v>
@@ -4627,7 +4701,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="7">
         <v>1.1599999999999999</v>
@@ -4641,7 +4715,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B30" s="5">
         <v>0.87</v>
@@ -4655,7 +4729,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B31" s="7">
         <v>0.57999999999999996</v>
@@ -4669,7 +4743,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B32" s="5">
         <v>0.28999999999999998</v>

--- a/calendars.xlsx
+++ b/calendars.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicolas\Drive\UDESA\Taller de Tesis\Papers sugeridos\para revisar\Automatic Splines\NonParametricTermStructure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\Google Drive\UDESA\Taller de Tesis\Papers sugeridos\para revisar\Automatic Splines\NonParametricTermStructure\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Prices" sheetId="1" r:id="rId1"/>
@@ -712,19 +712,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -741,74 +735,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1085,18 +1011,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>206</v>
       </c>
@@ -1116,7 +1042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1062,7 @@
         <v>44112</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1156,7 +1082,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1176,7 +1102,7 @@
         <v>45419</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1196,7 +1122,7 @@
         <v>44587</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1216,7 +1142,7 @@
         <v>45765</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1236,7 +1162,7 @@
         <v>46134</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1256,7 +1182,7 @@
         <v>46413</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1279,7 +1205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1299,7 +1225,7 @@
         <v>50148</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1322,7 +1248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1356,15 +1282,15 @@
       <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -1378,465 +1304,465 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="B4" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="B5" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="B6" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="B7" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="B8" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="B9" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="B10" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="B11" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+      <c r="B12" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="B13" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="B14" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+      <c r="B15" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="B16" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+      <c r="B17" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+      <c r="B18" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
+      <c r="B19" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
+      <c r="B20" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
+      <c r="B21" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
+      <c r="B22" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
+      <c r="B23" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
+      <c r="B24" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
+      <c r="B25" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
+      <c r="B26" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+      <c r="B27" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
+      <c r="B28" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+      <c r="B29" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
+      <c r="B30" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
+      <c r="B31" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
+      <c r="B32" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
+      <c r="B33" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="9" t="s">
+      <c r="B34" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C35" s="7">
+      <c r="B35" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C35" s="5">
         <v>33</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="5">
         <v>36.81</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>2.5499999999999998</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4">
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="5">
         <v>2.5499999999999998</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="5">
         <v>33</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="5">
         <v>35.549999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>1.29</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4">
         <v>1.29</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="5">
         <v>1.29</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="5">
         <v>34</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="5">
         <v>35.29</v>
       </c>
     </row>
@@ -1853,15 +1779,15 @@
       <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -1875,547 +1801,547 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>1.25</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
         <v>1.25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>1.88</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5">
         <v>1.88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>1.88</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
         <v>1.88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>1.88</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
         <v>1.88</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1.88</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
         <v>1.88</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>1.88</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
         <v>1.88</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>1.88</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
         <v>1.88</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>1.88</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
         <v>1.88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>1.88</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
         <v>1.88</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>1.88</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
         <v>1.88</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>1.88</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
         <v>1.88</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>1.88</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5">
         <v>1.88</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>1.88</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
         <v>1.88</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>1.88</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
         <v>1.88</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>1.88</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
         <v>1.88</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>1.88</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5">
         <v>1.88</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>1.88</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4">
         <v>1.88</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <v>1.88</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5">
         <v>1.88</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>1.88</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4">
         <v>1.88</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="5">
         <v>1.88</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5">
         <v>1.88</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>1.88</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4">
         <v>1.88</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <v>2.63</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5">
         <v>2.63</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>2.63</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>5</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>7.63</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="5">
         <v>2.4900000000000002</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="5">
         <v>5</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <v>7.49</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>2.36</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>5</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>7.36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="5">
         <v>2.23</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="5">
         <v>5</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="5">
         <v>7.23</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>2.1</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>5</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>7.1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="5">
         <v>1.97</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="5">
         <v>5</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="5">
         <v>6.97</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>1.84</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>5</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>6.84</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="5">
         <v>1.71</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="5">
         <v>5</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="5">
         <v>6.71</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>1.58</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>5</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>6.58</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="5">
         <v>1.44</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="5">
         <v>5</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="5">
         <v>6.44</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>1.31</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>5</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>6.31</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="5">
         <v>1.18</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="5">
         <v>5</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="5">
         <v>6.18</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>1.05</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>5</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>6.05</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="5">
         <v>0.92</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="5">
         <v>5</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="5">
         <v>5.92</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>0.79</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>5</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>5.79</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="5">
         <v>0.66</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="5">
         <v>5</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="5">
         <v>5.66</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>0.53</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>5</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <v>5.53</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="9" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="5">
         <v>0.39</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="5">
         <v>5</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="5">
         <v>5.39</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>0.26</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>5</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>5.26</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="5">
         <v>5</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="5">
         <v>5.07</v>
       </c>
     </row>
@@ -2432,15 +2358,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -2454,677 +2380,677 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="B4" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="B5" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="B6" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="B7" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="B8" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="B9" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="B10" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="B11" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+      <c r="B12" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="B13" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="B14" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+      <c r="B15" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="B16" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+      <c r="B17" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B18" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+      <c r="B18" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B19" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
+      <c r="B19" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B20" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
+      <c r="B20" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B21" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
+      <c r="B21" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B22" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
+      <c r="B22" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B23" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
+      <c r="B23" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B24" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
+      <c r="B24" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B25" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
+      <c r="B25" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B26" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
+      <c r="B26" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B27" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+      <c r="B27" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B28" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
+      <c r="B28" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B29" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+      <c r="B29" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B30" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
+      <c r="B30" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B31" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
+      <c r="B31" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B32" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
+      <c r="B32" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B33" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
+      <c r="B33" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B34" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="9" t="s">
+      <c r="B34" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B35" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
+      <c r="B35" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B36" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="9" t="s">
+      <c r="B36" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B37" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
+      <c r="B37" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B38" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="9" t="s">
+      <c r="B38" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B39" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="8" t="s">
+      <c r="B39" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B40" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="9" t="s">
+      <c r="B40" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B41" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="8" t="s">
+      <c r="B41" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B42" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="9" t="s">
+      <c r="B42" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B43" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="8" t="s">
+      <c r="B43" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B44" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="9" t="s">
+      <c r="B44" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B45" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="8" t="s">
+      <c r="B45" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B46" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="9" t="s">
+      <c r="B46" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B47" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="8" t="s">
+      <c r="B47" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B48" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="9" t="s">
+      <c r="B48" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B49" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="8" t="s">
+      <c r="B49" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B50" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="9" t="s">
+      <c r="B50" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B51" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="8" t="s">
+      <c r="B51" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B52" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="9" t="s">
+      <c r="B52" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B53" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="8" t="s">
+      <c r="B53" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B54" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="9" t="s">
+      <c r="B54" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B55" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="8" t="s">
+      <c r="B55" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B56" s="5">
-        <v>3.81</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="9" t="s">
+      <c r="B56" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B57" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C57" s="7">
+      <c r="B57" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="C57" s="5">
         <v>100</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="5">
         <v>103.81</v>
       </c>
     </row>
@@ -3135,19 +3061,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -3161,67 +3088,72 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
-        <v>43322</v>
-      </c>
-      <c r="B2" s="5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>43381</v>
+      </c>
+      <c r="B2" s="4">
         <v>4</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
-        <v>43681</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>43563</v>
+      </c>
+      <c r="B3" s="5">
         <v>4</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>43687</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>43746</v>
+      </c>
+      <c r="B4" s="4">
         <v>4</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
-        <v>44047</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B5" s="5">
         <v>4</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>44053</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>44112</v>
+      </c>
+      <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>100</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>104</v>
       </c>
+      <c r="F6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3236,13 +3168,13 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -3256,77 +3188,77 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>3.44</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
         <v>3.44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>3.44</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5">
         <v>3.44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>3.44</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
         <v>3.44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>3.44</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
         <v>3.44</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>3.44</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
         <v>3.44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>3.44</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>100</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>103.44</v>
       </c>
     </row>
@@ -3339,17 +3271,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -3363,89 +3295,89 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>2.81</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
         <v>2.81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>2.81</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5">
         <v>2.81</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>2.81</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
         <v>2.81</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>2.81</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
         <v>2.81</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>2.81</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
         <v>2.81</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>2.81</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
         <v>2.81</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>2.81</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>100</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>102.81</v>
       </c>
     </row>
@@ -3456,18 +3388,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -3481,160 +3413,164 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
-        <v>43292</v>
-      </c>
-      <c r="B2" s="5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>43411</v>
+      </c>
+      <c r="B2" s="4">
         <v>4.38</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
         <v>4.38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
-        <v>43651</v>
-      </c>
-      <c r="B3" s="7">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>43592</v>
+      </c>
+      <c r="B3" s="5">
         <v>4.38</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>16.66</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>21.04</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>43657</v>
-      </c>
-      <c r="B4" s="5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>43776</v>
+      </c>
+      <c r="B4" s="4">
         <v>3.65</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
         <v>3.65</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
-        <v>44017</v>
-      </c>
-      <c r="B5" s="7">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B5" s="5">
         <v>3.65</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>16.66</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>20.309999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>44023</v>
-      </c>
-      <c r="B6" s="5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>44142</v>
+      </c>
+      <c r="B6" s="4">
         <v>2.92</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
         <v>2.92</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
-        <v>44382</v>
-      </c>
-      <c r="B7" s="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>44323</v>
+      </c>
+      <c r="B7" s="5">
         <v>2.92</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>16.66</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>19.579999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>44388</v>
-      </c>
-      <c r="B8" s="5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>44507</v>
+      </c>
+      <c r="B8" s="4">
         <v>2.19</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
         <v>2.19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
-        <v>44747</v>
-      </c>
-      <c r="B9" s="7">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>44688</v>
+      </c>
+      <c r="B9" s="5">
         <v>2.19</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>16.66</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>18.850000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>44753</v>
-      </c>
-      <c r="B10" s="5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>44872</v>
+      </c>
+      <c r="B10" s="4">
         <v>1.46</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
         <v>1.46</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
-        <v>45112</v>
-      </c>
-      <c r="B11" s="7">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>45053</v>
+      </c>
+      <c r="B11" s="5">
         <v>1.46</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>16.66</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>18.12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>45118</v>
-      </c>
-      <c r="B12" s="5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>45237</v>
+      </c>
+      <c r="B12" s="4">
         <v>0.73</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
         <v>0.73</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
-        <v>45478</v>
-      </c>
-      <c r="B13" s="7">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>45419</v>
+      </c>
+      <c r="B13" s="5">
         <v>0.73</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>16.7</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>17.43</v>
+      </c>
+      <c r="F13">
+        <f>MONTH(A13)</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3650,12 +3586,12 @@
       <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -3669,177 +3605,177 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>2.88</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
         <v>2.88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>2.88</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5">
         <v>2.88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>2.88</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
         <v>2.88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>2.88</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
         <v>2.88</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>2.88</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
         <v>2.88</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>2.88</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
         <v>2.88</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>2.88</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
         <v>2.88</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>2.88</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
         <v>2.88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>2.88</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
         <v>2.88</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>2.88</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>33</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>35.880000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>1.93</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
         <v>1.93</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>1.93</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>33</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>34.93</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>0.98</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
         <v>0.98</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>0.98</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <v>34</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>34.979999999999997</v>
       </c>
     </row>
@@ -3856,13 +3792,13 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -3876,197 +3812,197 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>3.75</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
         <v>3.75</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>3.75</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5">
         <v>3.75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>3.75</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
         <v>3.75</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>3.75</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
         <v>3.75</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>3.75</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
         <v>3.75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>3.75</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
         <v>3.75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>3.75</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
         <v>3.75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>3.75</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
         <v>3.75</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>3.75</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
         <v>3.75</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>3.75</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
         <v>3.75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>3.75</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
         <v>3.75</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>3.75</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5">
         <v>3.75</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>3.75</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
         <v>3.75</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>3.75</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
         <v>3.75</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>3.75</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
         <v>3.75</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>3.75</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <v>100</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>103.75</v>
       </c>
     </row>
@@ -4083,15 +4019,15 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -4105,209 +4041,209 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>3.44</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
         <v>3.44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>3.44</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5">
         <v>3.44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>3.44</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
         <v>3.44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>3.44</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
         <v>3.44</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>3.44</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
         <v>3.44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>3.44</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
         <v>3.44</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>3.44</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
         <v>3.44</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>3.44</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
         <v>3.44</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>3.44</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
         <v>3.44</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>3.44</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
         <v>3.44</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>3.44</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
         <v>3.44</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>3.44</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5">
         <v>3.44</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>3.44</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
         <v>3.44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>3.44</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
         <v>3.44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>3.44</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
         <v>3.44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>3.44</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5">
         <v>3.44</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>3.44</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>100</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>103.44</v>
       </c>
     </row>
@@ -4324,12 +4260,12 @@
       <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -4343,415 +4279,415 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>5.8</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
         <v>5.8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>5.8</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5">
         <v>5.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>5.8</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
         <v>5.8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>5.8</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
         <v>5.8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>5.8</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
         <v>5.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>5.8</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
         <v>5.8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>5.8</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
         <v>5.8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>5.8</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
         <v>5.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>5.8</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
         <v>5.8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>5.8</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
         <v>5.8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>5.8</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
         <v>5.8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>5.8</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>7.01</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>12.81</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>5.51</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>7.01</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>12.52</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>5.22</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <v>7.01</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>12.23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>4.93</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>7.01</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>11.94</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>4.6399999999999997</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <v>7.01</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>11.65</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>4.3499999999999996</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>7.01</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>11.36</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <v>4.0599999999999996</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <v>7.01</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <v>11.07</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>3.77</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>7.01</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>10.78</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="5">
         <v>3.48</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="5">
         <v>7.01</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <v>10.49</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>3.19</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>7.01</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <v>2.9</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="5">
         <v>7.01</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>9.91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>2.61</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>7.01</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>9.6199999999999992</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="5">
         <v>2.3199999999999998</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="5">
         <v>7.01</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <v>9.33</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>2.0299999999999998</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>7.01</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>9.0399999999999991</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="5">
         <v>1.74</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="5">
         <v>7.01</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="5">
         <v>8.75</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>1.45</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>7.01</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>8.4600000000000009</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="5">
         <v>1.1599999999999999</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="5">
         <v>7.01</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="5">
         <v>8.17</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>0.87</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>7.01</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>7.88</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="5">
         <v>7.01</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="5">
         <v>7.59</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>7.01</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>7.3</v>
       </c>
     </row>

--- a/calendars.xlsx
+++ b/calendars.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\Google Drive\UDESA\Taller de Tesis\Papers sugeridos\para revisar\Automatic Splines\NonParametricTermStructure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasbaum/Tesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54852C3-5794-274E-8AE5-0F7F788DCDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10785" activeTab="3"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prices" sheetId="1" r:id="rId1"/>
@@ -25,10 +26,20 @@
     <sheet name="PARA" sheetId="11" r:id="rId11"/>
     <sheet name="AA46" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -661,7 +672,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
@@ -1008,21 +1019,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L18" sqref="K18:L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>206</v>
       </c>
@@ -1042,7 +1057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +1077,7 @@
         <v>44112</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1082,7 +1097,7 @@
         <v>44308</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1102,7 +1117,7 @@
         <v>45419</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1122,7 +1137,7 @@
         <v>44587</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1142,7 +1157,7 @@
         <v>45765</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1162,7 +1177,7 @@
         <v>46134</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1182,7 +1197,7 @@
         <v>46413</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1205,7 +1220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1225,7 +1240,7 @@
         <v>50148</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1248,7 +1263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1275,22 +1290,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -1304,7 +1319,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -1316,7 +1331,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
@@ -1328,7 +1343,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
@@ -1340,7 +1355,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>31</v>
       </c>
@@ -1352,7 +1367,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -1364,7 +1379,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
@@ -1376,7 +1391,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -1388,7 +1403,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>35</v>
       </c>
@@ -1400,7 +1415,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
@@ -1412,7 +1427,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>37</v>
       </c>
@@ -1424,7 +1439,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
@@ -1436,7 +1451,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>39</v>
       </c>
@@ -1448,7 +1463,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>40</v>
       </c>
@@ -1460,7 +1475,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>41</v>
       </c>
@@ -1472,7 +1487,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>93</v>
       </c>
@@ -1484,7 +1499,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>94</v>
       </c>
@@ -1496,7 +1511,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>95</v>
       </c>
@@ -1508,7 +1523,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>96</v>
       </c>
@@ -1520,7 +1535,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>97</v>
       </c>
@@ -1532,7 +1547,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>98</v>
       </c>
@@ -1544,7 +1559,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>99</v>
       </c>
@@ -1556,7 +1571,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>100</v>
       </c>
@@ -1568,7 +1583,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>101</v>
       </c>
@@ -1580,7 +1595,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>102</v>
       </c>
@@ -1592,7 +1607,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>103</v>
       </c>
@@ -1604,7 +1619,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>104</v>
       </c>
@@ -1616,7 +1631,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>105</v>
       </c>
@@ -1628,7 +1643,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>106</v>
       </c>
@@ -1640,7 +1655,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>107</v>
       </c>
@@ -1652,7 +1667,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>108</v>
       </c>
@@ -1664,7 +1679,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>109</v>
       </c>
@@ -1676,7 +1691,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>110</v>
       </c>
@@ -1688,7 +1703,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>111</v>
       </c>
@@ -1700,7 +1715,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>112</v>
       </c>
@@ -1714,7 +1729,7 @@
         <v>36.81</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>113</v>
       </c>
@@ -1726,7 +1741,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>114</v>
       </c>
@@ -1740,7 +1755,7 @@
         <v>35.549999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>115</v>
       </c>
@@ -1752,7 +1767,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>116</v>
       </c>
@@ -1772,22 +1787,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -1801,7 +1815,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>117</v>
       </c>
@@ -1813,7 +1827,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>118</v>
       </c>
@@ -1825,7 +1839,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>119</v>
       </c>
@@ -1837,7 +1851,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>120</v>
       </c>
@@ -1849,7 +1863,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>121</v>
       </c>
@@ -1861,7 +1875,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>122</v>
       </c>
@@ -1873,7 +1887,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>123</v>
       </c>
@@ -1885,7 +1899,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>124</v>
       </c>
@@ -1897,7 +1911,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>125</v>
       </c>
@@ -1909,7 +1923,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>126</v>
       </c>
@@ -1921,7 +1935,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>127</v>
       </c>
@@ -1933,7 +1947,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>128</v>
       </c>
@@ -1945,7 +1959,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>129</v>
       </c>
@@ -1957,7 +1971,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>130</v>
       </c>
@@ -1969,7 +1983,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>131</v>
       </c>
@@ -1981,7 +1995,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>132</v>
       </c>
@@ -1993,7 +2007,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>133</v>
       </c>
@@ -2005,7 +2019,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>134</v>
       </c>
@@ -2017,7 +2031,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>135</v>
       </c>
@@ -2029,7 +2043,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>136</v>
       </c>
@@ -2041,7 +2055,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>137</v>
       </c>
@@ -2053,7 +2067,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>138</v>
       </c>
@@ -2065,7 +2079,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>139</v>
       </c>
@@ -2079,7 +2093,7 @@
         <v>7.63</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>140</v>
       </c>
@@ -2093,7 +2107,7 @@
         <v>7.49</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>141</v>
       </c>
@@ -2107,7 +2121,7 @@
         <v>7.36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>142</v>
       </c>
@@ -2121,7 +2135,7 @@
         <v>7.23</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>143</v>
       </c>
@@ -2135,7 +2149,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>144</v>
       </c>
@@ -2149,7 +2163,7 @@
         <v>6.97</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>145</v>
       </c>
@@ -2163,7 +2177,7 @@
         <v>6.84</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>146</v>
       </c>
@@ -2177,7 +2191,7 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>147</v>
       </c>
@@ -2191,7 +2205,7 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>148</v>
       </c>
@@ -2205,7 +2219,7 @@
         <v>6.44</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>149</v>
       </c>
@@ -2219,7 +2233,7 @@
         <v>6.31</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>150</v>
       </c>
@@ -2233,7 +2247,7 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>151</v>
       </c>
@@ -2247,7 +2261,7 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>152</v>
       </c>
@@ -2261,7 +2275,7 @@
         <v>5.92</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>153</v>
       </c>
@@ -2275,7 +2289,7 @@
         <v>5.79</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>154</v>
       </c>
@@ -2289,7 +2303,7 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>155</v>
       </c>
@@ -2303,7 +2317,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>156</v>
       </c>
@@ -2317,7 +2331,7 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>157</v>
       </c>
@@ -2331,7 +2345,7 @@
         <v>5.26</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>158</v>
       </c>
@@ -2351,22 +2365,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -2380,7 +2393,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -2392,7 +2405,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -2404,7 +2417,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -2416,7 +2429,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -2428,7 +2441,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -2440,7 +2453,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
@@ -2452,7 +2465,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
@@ -2464,7 +2477,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
@@ -2476,7 +2489,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
@@ -2488,7 +2501,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>45</v>
       </c>
@@ -2500,7 +2513,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>46</v>
       </c>
@@ -2512,7 +2525,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>47</v>
       </c>
@@ -2524,7 +2537,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>48</v>
       </c>
@@ -2536,7 +2549,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>49</v>
       </c>
@@ -2548,7 +2561,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>50</v>
       </c>
@@ -2560,7 +2573,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>51</v>
       </c>
@@ -2572,7 +2585,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>159</v>
       </c>
@@ -2584,7 +2597,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>160</v>
       </c>
@@ -2596,7 +2609,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>161</v>
       </c>
@@ -2608,7 +2621,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>162</v>
       </c>
@@ -2620,7 +2633,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>163</v>
       </c>
@@ -2632,7 +2645,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>164</v>
       </c>
@@ -2644,7 +2657,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>165</v>
       </c>
@@ -2656,7 +2669,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>166</v>
       </c>
@@ -2668,7 +2681,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>167</v>
       </c>
@@ -2680,7 +2693,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>168</v>
       </c>
@@ -2692,7 +2705,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>169</v>
       </c>
@@ -2704,7 +2717,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>170</v>
       </c>
@@ -2716,7 +2729,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>171</v>
       </c>
@@ -2728,7 +2741,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>172</v>
       </c>
@@ -2740,7 +2753,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>173</v>
       </c>
@@ -2752,7 +2765,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>174</v>
       </c>
@@ -2764,7 +2777,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>175</v>
       </c>
@@ -2776,7 +2789,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>176</v>
       </c>
@@ -2788,7 +2801,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>177</v>
       </c>
@@ -2800,7 +2813,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>178</v>
       </c>
@@ -2812,7 +2825,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>179</v>
       </c>
@@ -2824,7 +2837,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>180</v>
       </c>
@@ -2836,7 +2849,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>181</v>
       </c>
@@ -2848,7 +2861,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>182</v>
       </c>
@@ -2860,7 +2873,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>183</v>
       </c>
@@ -2872,7 +2885,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>184</v>
       </c>
@@ -2884,7 +2897,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>185</v>
       </c>
@@ -2896,7 +2909,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>186</v>
       </c>
@@ -2908,7 +2921,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>187</v>
       </c>
@@ -2920,7 +2933,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>188</v>
       </c>
@@ -2932,7 +2945,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>189</v>
       </c>
@@ -2944,7 +2957,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>190</v>
       </c>
@@ -2956,7 +2969,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>191</v>
       </c>
@@ -2968,7 +2981,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>192</v>
       </c>
@@ -2980,7 +2993,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>193</v>
       </c>
@@ -2992,7 +3005,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>194</v>
       </c>
@@ -3004,7 +3017,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>195</v>
       </c>
@@ -3016,7 +3029,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>196</v>
       </c>
@@ -3028,7 +3041,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>197</v>
       </c>
@@ -3040,7 +3053,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>198</v>
       </c>
@@ -3060,21 +3073,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -3088,7 +3101,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43381</v>
       </c>
@@ -3101,7 +3114,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43563</v>
       </c>
@@ -3114,7 +3127,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43746</v>
       </c>
@@ -3127,7 +3140,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43929</v>
       </c>
@@ -3140,7 +3153,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44112</v>
       </c>
@@ -3161,20 +3174,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -3188,7 +3201,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -3200,7 +3213,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -3212,7 +3225,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -3224,7 +3237,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -3236,7 +3249,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -3248,7 +3261,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
@@ -3268,20 +3281,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -3295,7 +3308,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
@@ -3307,7 +3320,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -3319,7 +3332,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
@@ -3331,7 +3344,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
@@ -3343,7 +3356,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -3355,7 +3368,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
@@ -3367,7 +3380,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -3387,19 +3400,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -3413,7 +3430,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43411</v>
       </c>
@@ -3425,7 +3442,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43592</v>
       </c>
@@ -3439,7 +3456,7 @@
         <v>21.04</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43776</v>
       </c>
@@ -3451,7 +3468,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43958</v>
       </c>
@@ -3465,7 +3482,7 @@
         <v>20.309999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44142</v>
       </c>
@@ -3477,7 +3494,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44323</v>
       </c>
@@ -3491,7 +3508,7 @@
         <v>19.579999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44507</v>
       </c>
@@ -3503,7 +3520,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44688</v>
       </c>
@@ -3517,7 +3534,7 @@
         <v>18.850000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44872</v>
       </c>
@@ -3529,7 +3546,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45053</v>
       </c>
@@ -3543,7 +3560,7 @@
         <v>18.12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45237</v>
       </c>
@@ -3555,7 +3572,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45419</v>
       </c>
@@ -3579,19 +3596,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -3605,7 +3622,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -3617,7 +3634,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
@@ -3629,7 +3646,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
@@ -3641,7 +3658,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>31</v>
       </c>
@@ -3653,7 +3670,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -3665,7 +3682,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
@@ -3677,7 +3694,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -3689,7 +3706,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>35</v>
       </c>
@@ -3701,7 +3718,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
@@ -3713,7 +3730,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>37</v>
       </c>
@@ -3727,7 +3744,7 @@
         <v>35.880000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
@@ -3739,7 +3756,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>39</v>
       </c>
@@ -3753,7 +3770,7 @@
         <v>34.93</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>40</v>
       </c>
@@ -3765,7 +3782,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>41</v>
       </c>
@@ -3785,20 +3802,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -3812,7 +3829,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -3824,7 +3841,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -3836,7 +3853,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -3848,7 +3865,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -3860,7 +3877,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -3872,7 +3889,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
@@ -3884,7 +3901,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
@@ -3896,7 +3913,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>43</v>
       </c>
@@ -3908,7 +3925,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
@@ -3920,7 +3937,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>45</v>
       </c>
@@ -3932,7 +3949,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>46</v>
       </c>
@@ -3944,7 +3961,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>47</v>
       </c>
@@ -3956,7 +3973,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>48</v>
       </c>
@@ -3968,7 +3985,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>49</v>
       </c>
@@ -3980,7 +3997,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>50</v>
       </c>
@@ -3992,7 +4009,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>51</v>
       </c>
@@ -4012,22 +4029,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -4041,7 +4057,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
@@ -4053,7 +4069,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -4065,7 +4081,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
@@ -4077,7 +4093,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
@@ -4089,7 +4105,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -4101,7 +4117,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
@@ -4113,7 +4129,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -4125,7 +4141,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
@@ -4137,7 +4153,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>53</v>
       </c>
@@ -4149,7 +4165,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>54</v>
       </c>
@@ -4161,7 +4177,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>55</v>
       </c>
@@ -4173,7 +4189,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>56</v>
       </c>
@@ -4185,7 +4201,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>57</v>
       </c>
@@ -4197,7 +4213,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>58</v>
       </c>
@@ -4209,7 +4225,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>59</v>
       </c>
@@ -4221,7 +4237,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>60</v>
       </c>
@@ -4233,7 +4249,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>61</v>
       </c>
@@ -4253,19 +4269,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>201</v>
       </c>
@@ -4279,7 +4298,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>62</v>
       </c>
@@ -4291,7 +4310,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>63</v>
       </c>
@@ -4303,7 +4322,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>64</v>
       </c>
@@ -4315,7 +4334,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>65</v>
       </c>
@@ -4327,7 +4346,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>66</v>
       </c>
@@ -4339,7 +4358,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>67</v>
       </c>
@@ -4351,7 +4370,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>68</v>
       </c>
@@ -4363,7 +4382,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>69</v>
       </c>
@@ -4375,7 +4394,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>70</v>
       </c>
@@ -4387,7 +4406,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>71</v>
       </c>
@@ -4399,7 +4418,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>72</v>
       </c>
@@ -4411,7 +4430,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>73</v>
       </c>
@@ -4425,7 +4444,7 @@
         <v>12.81</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>74</v>
       </c>
@@ -4439,7 +4458,7 @@
         <v>12.52</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>75</v>
       </c>
@@ -4453,7 +4472,7 @@
         <v>12.23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>76</v>
       </c>
@@ -4467,7 +4486,7 @@
         <v>11.94</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>77</v>
       </c>
@@ -4481,7 +4500,7 @@
         <v>11.65</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>78</v>
       </c>
@@ -4495,7 +4514,7 @@
         <v>11.36</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>79</v>
       </c>
@@ -4509,7 +4528,7 @@
         <v>11.07</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>80</v>
       </c>
@@ -4523,7 +4542,7 @@
         <v>10.78</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>81</v>
       </c>
@@ -4537,7 +4556,7 @@
         <v>10.49</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>82</v>
       </c>
@@ -4551,7 +4570,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>83</v>
       </c>
@@ -4565,7 +4584,7 @@
         <v>9.91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>84</v>
       </c>
@@ -4579,7 +4598,7 @@
         <v>9.6199999999999992</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>85</v>
       </c>
@@ -4593,7 +4612,7 @@
         <v>9.33</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>86</v>
       </c>
@@ -4607,7 +4626,7 @@
         <v>9.0399999999999991</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>87</v>
       </c>
@@ -4621,7 +4640,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>88</v>
       </c>
@@ -4635,7 +4654,7 @@
         <v>8.4600000000000009</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>89</v>
       </c>
@@ -4649,7 +4668,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>90</v>
       </c>
@@ -4663,7 +4682,7 @@
         <v>7.88</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>91</v>
       </c>
@@ -4677,7 +4696,7 @@
         <v>7.59</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>92</v>
       </c>
